--- a/biology/Zoologie/Oligaeschna/Oligaeschna.xlsx
+++ b/biology/Zoologie/Oligaeschna/Oligaeschna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oligaeschna est un genre fossile de libellules de la sous-famille des Aeshninae (famille des Aeshnidae).
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est décrit conjointement en 1939 par les deux paléontologues français Louis Émile Piton (1909-1945) et Nicolas Théobald (1903-1981)[1]. Son espèce type est †Oligaeschna jungi Piton &amp; Théobald, 1939[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est décrit conjointement en 1939 par les deux paléontologues français Louis Émile Piton (1909-1945) et Nicolas Théobald (1903-1981). Son espèce type est †Oligaeschna jungi Piton &amp; Théobald, 1939.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database, en 2023, les espèces référencées étaient au nombre de dix[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database, en 2023, les espèces référencées étaient au nombre de dix :
 †Oligaeschna ashutasica Martynov, 1929 avec deux synonymes Basiaeschna ashutasica, Oplonaeschna ashutasica.
 †Oligaeschna bulgariensis Nel et al., 2016
 †Oligaeschna jungi Piton &amp; Théobald, 1939 - espèce type
@@ -583,9 +599,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles ont été retrouvés sur trois continents Europe, Asie et Amérique[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles ont été retrouvés sur trois continents Europe, Asie et Amérique.
 </t>
         </is>
       </c>
